--- a/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表 管理员打分.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表 管理员打分.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\QDF打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2303AD0C-2DD8-4844-A6EF-310689E1C9B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E39EC5-9B23-42E3-8FCB-5B48961F3FCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,9 +1363,6 @@
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：优先级在0.75以上（含0.75）为高优先级，在0.2-0.75（含0.2）为中优先级，在0.2以下的为低优先级</t>
   </si>
   <si>
     <t>表中数据统一采用1-9的数字进行填写:</t>
@@ -1635,6 +1632,9 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：优先级在0.5以上（含0.5）为高优先级，在0.2-0.5（含0.2）为中优先级，在0.2以下的为低优先级</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2437,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
@@ -2457,12 +2457,12 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
@@ -2480,69 +2480,69 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="G7" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="G8" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -2640,10 +2640,10 @@
         <v>399</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2695,10 +2695,10 @@
         <v>405</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2750,10 +2750,10 @@
         <v>411</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2803,10 +2803,10 @@
         <v>417</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2837,10 +2837,10 @@
         <v>421</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2871,10 +2871,10 @@
         <v>425</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2890,10 +2890,10 @@
         <v>427</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2909,10 +2909,10 @@
         <v>429</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
